--- a/biology/Botanique/Fédération_des_conservatoires_botaniques_nationaux/Fédération_des_conservatoires_botaniques_nationaux.xlsx
+++ b/biology/Botanique/Fédération_des_conservatoires_botaniques_nationaux/Fédération_des_conservatoires_botaniques_nationaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_des_conservatoires_botaniques_nationaux</t>
+          <t>Fédération_des_conservatoires_botaniques_nationaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération des conservatoires botaniques nationaux (FCBN) est une association loi de 1901 créée en 1999 en France pour regrouper les conservatoires botaniques nationaux (CBN).
 Elle a pour objectif principal de permettre l'expression et/ou l'intervention commune des CBN sur toutes les questions concernant la connaissance, la préservation, la gestion et la valorisation du patrimoine végétal et des milieux naturels, conformément à leur cahier des charges.
 Elle a notamment pour but d'aider à la mise en œuvre et au développement de la politique définie par les pouvoirs publics en matière de préservation et de valorisation du patrimoine végétal sauvage et d'y participer.
 À partir de 2010, en application de la loi du 12 juillet 2010 dite loi « Grenelle II », la Fédération des CBN a assuré la coordination technique des conservatoires botaniques nationaux. Cette mission a été transférée au 1er janvier 2017 à l'Agence française pour la biodiversité créée par la loi du 8 août 2016 pour la reconquête de la biodiversité. Le transfert effectif s'est effectué le 1er juin 2017.
-Les statuts de la Fédération des CBN ont été approuvés par un arrêté du ministère de l'Aménagement du territoire et de l'Environnement (à l'époque Dominique Voynet) en date du 7 juin 1999[1].
+Les statuts de la Fédération des CBN ont été approuvés par un arrêté du ministère de l'Aménagement du territoire et de l'Environnement (à l'époque Dominique Voynet) en date du 7 juin 1999.
 Elle a son siège social au Muséum national d'histoire naturelle, dans le 5e arrondissement de Paris et son siège administratif au 18 rue Beaumarchais à Montreuil.
 </t>
         </is>
